--- a/data/general_data.xlsx
+++ b/data/general_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/GitHub/CORT_Temp_Stressor_response/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3246" documentId="13_ncr:1_{470C8D95-06F8-B740-82BB-C0D2ADC61D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FA43EB-0258-EA4A-943E-642D99FDCEB6}"/>
+  <xr:revisionPtr revIDLastSave="3247" documentId="13_ncr:1_{470C8D95-06F8-B740-82BB-C0D2ADC61D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758286E4-F85F-F04D-9E86-3A53E5850A50}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="2880" windowWidth="27640" windowHeight="15680" xr2:uid="{54D204EE-96F2-1842-ADFD-93246B0E96AB}"/>
+    <workbookView xWindow="7780" yWindow="2880" windowWidth="27640" windowHeight="15680" activeTab="1" xr2:uid="{54D204EE-96F2-1842-ADFD-93246B0E96AB}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="6" r:id="rId1"/>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41B7FC-018A-0946-BBB0-2DA887D60E33}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2873,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29EE812-BCF7-6E48-92F6-1A2074A3F805}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,7 +2912,7 @@
         <v>416</v>
       </c>
       <c r="J1" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="K1" t="s">
         <v>382</v>
